--- a/Space_Hook/Assets/Sounds/Sound List.xlsx
+++ b/Space_Hook/Assets/Sounds/Sound List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni Files\2018 - 3rd Year\Semester 2\GAM20004 - Digital Prototyping Lab\Game\Space_Hook\Assets\Sounds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F26335D-2619-43E5-9FF9-6FE4A93DB356}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25440AF-2924-48AA-875A-EAAF2B31B1DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="9270" xr2:uid="{53F84904-EAA4-4DB4-97B9-0E89632A93E4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Sound List</t>
   </si>
@@ -116,9 +116,6 @@
     <t>ship background noise for ambiance</t>
   </si>
   <si>
-    <t>Select Object</t>
-  </si>
-  <si>
     <t>Death/Respawn Sound</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>explosion on destruction</t>
+  </si>
+  <si>
+    <t>beamON</t>
+  </si>
+  <si>
+    <t>used while connected to object, loop until off</t>
+  </si>
+  <si>
+    <t>Select Object, once</t>
   </si>
 </sst>
 </file>
@@ -207,10 +213,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033CF4D-23BC-40CF-A7B9-18F547718802}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,34 +543,34 @@
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
@@ -584,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -615,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -649,24 +655,24 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,7 +711,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -714,10 +720,27 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Space_Hook/Assets/Sounds/Sound List.xlsx
+++ b/Space_Hook/Assets/Sounds/Sound List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni Files\2018 - 3rd Year\Semester 2\GAM20004 - Digital Prototyping Lab\Game\Space_Hook\Assets\Sounds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25440AF-2924-48AA-875A-EAAF2B31B1DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D044C-7CB7-4A8A-98BF-9A6B327B260D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="9270" xr2:uid="{53F84904-EAA4-4DB4-97B9-0E89632A93E4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Sound List</t>
   </si>
@@ -74,15 +74,9 @@
     <t>CC - No mention</t>
   </si>
   <si>
-    <t>273357__profmegavolt__hyperdrive-sound-effect-1</t>
-  </si>
-  <si>
     <t>ProfMegaVolt</t>
   </si>
   <si>
-    <t>341492__robinhood76__06515-bubble-interface-ding CC3.0 NC</t>
-  </si>
-  <si>
     <t>RobinHood76</t>
   </si>
   <si>
@@ -150,6 +144,21 @@
   </si>
   <si>
     <t>Select Object, once</t>
+  </si>
+  <si>
+    <t>Collection Chirp</t>
+  </si>
+  <si>
+    <t>used when collecting shards</t>
+  </si>
+  <si>
+    <t>Startup</t>
+  </si>
+  <si>
+    <t>Object Select</t>
+  </si>
+  <si>
+    <t>End of Game</t>
   </si>
 </sst>
 </file>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033CF4D-23BC-40CF-A7B9-18F547718802}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -606,141 +615,161 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Space_Hook/Assets/Sounds/Sound List.xlsx
+++ b/Space_Hook/Assets/Sounds/Sound List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni Files\2018 - 3rd Year\Semester 2\GAM20004 - Digital Prototyping Lab\Game\Space_Hook\Assets\Sounds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D044C-7CB7-4A8A-98BF-9A6B327B260D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579BB9F3-13A1-4442-89AA-1E59726D0F9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="9270" xr2:uid="{53F84904-EAA4-4DB4-97B9-0E89632A93E4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Sound List</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>End of Game</t>
+  </si>
+  <si>
+    <t>menu background on main</t>
+  </si>
+  <si>
+    <t>SOS main menu</t>
   </si>
 </sst>
 </file>
@@ -540,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033CF4D-23BC-40CF-A7B9-18F547718802}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,6 +778,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/Space_Hook/Assets/Sounds/Sound List.xlsx
+++ b/Space_Hook/Assets/Sounds/Sound List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni Files\2018 - 3rd Year\Semester 2\GAM20004 - Digital Prototyping Lab\Game\Space_Hook\Assets\Sounds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579BB9F3-13A1-4442-89AA-1E59726D0F9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAF11F0-6FF5-4639-A934-DA66460EBD83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="9270" xr2:uid="{53F84904-EAA4-4DB4-97B9-0E89632A93E4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Sound List</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>SOS main menu</t>
+  </si>
+  <si>
+    <t>28693__infobandit__sonar</t>
+  </si>
+  <si>
+    <t>infobandit</t>
+  </si>
+  <si>
+    <t>click on homebase</t>
   </si>
 </sst>
 </file>
@@ -546,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033CF4D-23BC-40CF-A7B9-18F547718802}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +804,23 @@
         <v>43</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
